--- a/BNegative.xlsx
+++ b/BNegative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F80AEA43-95F8-49B6-9FE9-AF5D960170EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A6B3FC-BB83-42D7-B7E8-FFB60277DD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4654ABFA-6780-4448-9BF7-3C167C455C8C}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +756,9 @@
       <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6">
+        <v>6367347587</v>
+      </c>
       <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
@@ -771,7 +773,9 @@
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6">
+        <v>9207895741</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
